--- a/loaded_influencer_data/beautywith.rm/beautywith.rm_video.xlsx
+++ b/loaded_influencer_data/beautywith.rm/beautywith.rm_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,94 +506,98 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@beautywith.rm/video/7483607749331291397</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@beautywith.rm/video/7410798136618257669</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1396</v>
+        <v>9700000</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>21400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2303</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>BOMBBBBB 🔥 @NYX Professional Makeup
+#fyp #foryou #foryoupage #itgirl #cleangirl #softgirl #aesthetic</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.2239278350515464</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.2206185567010309</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.003309278350515464</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.02374226804123711</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>고정됨</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2024-9-4</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@beautywith.rm/video/7410798136618257669</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@beautywith.rm/video/7461818613360643334</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9700000</v>
+        <v>1500000</v>
       </c>
       <c r="C3" t="n">
-        <v>96</v>
+        <v>25600</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>1249</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>3986</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>@urban decay Face Bond Luminizer👀✨💕 @sephoracanada
-#urbandecay #urbandecaycosmetics #luminizer</t>
+          <t>WTF! I feel so bad for her tho😭 #medicube #medicubeboosterpro #facial #aesthetician</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.001505154639175258</v>
+        <v>1.789933333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0009896907216494846</v>
+        <v>1.706666666666667</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0005154639175257732</v>
+        <v>0.08326666666666667</v>
       </c>
       <c r="L3" t="n">
-        <v>4.123711340206185e-05</v>
+        <v>0.2657333333333333</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -602,2402 +606,2447 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
+          <t>2025-01-20</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@beautywith.rm/video/7461818613360643334</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@beautywith.rm/photo/7489551226682608951</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1500000</v>
+        <v>517</v>
       </c>
       <c r="C4" t="n">
-        <v>554</v>
+        <v>82</v>
       </c>
       <c r="D4" t="n">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>@pradabeauty @Clinique @urban decay @Maybelline NY @dosejuice @touchland @L’Oréal Paris
-#prpackage</t>
+          <t>TYSM💗 @La Roche-Posay @Caudalie @Peach &amp; Lily @Garnier Canada @velourbeauty @Beauty of Joseon</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.04906666666666667</v>
+        <v>22.43713733075435</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03693333333333333</v>
+        <v>15.86073500967118</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01213333333333333</v>
+        <v>6.576402321083171</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>고정됨</t>
-        </is>
+        <v>1.353965183752418</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-03-15</t>
+          <t>2025-04-05</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@beautywith.rm/video/7489526592209784119</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>470</v>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Why do i lowkey love this kind of PR haul?🫶🏼 tysm @Peach &amp; Lily @Beauty of Joseon @La Roche-Posay</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>19.78723404255319</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.70212765957447</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.085106382978724</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.425531914893617</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@beautywith.rm/video/7489490916462316806</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>412</v>
+      </c>
+      <c r="C6" t="n">
+        <v>61</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>@urban decay Face Bond Luminizers✨😍
+#urbandecay #urbandecaycosmetics #spacecowboy #sephora</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>22.0873786407767</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.80582524271844</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7.281553398058252</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2427184466019417</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@beautywith.rm/video/7489255172510649606</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>588</v>
+      </c>
+      <c r="C7" t="n">
+        <v>79</v>
+      </c>
+      <c r="D7" t="n">
+        <v>39</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Trying @Beauty of Joseon Tinted SPF😍☀️
+#beautyofjoseon #beautyofjoseonsunscreen</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>20.06802721088435</v>
+      </c>
+      <c r="I7" t="n">
+        <v>13.43537414965986</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.63265306122449</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8503401360544218</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@beautywith.rm/video/7489200230798281989</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>546</v>
+      </c>
+      <c r="C8" t="n">
+        <v>71</v>
+      </c>
+      <c r="D8" t="n">
+        <v>27</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Finally getting warmer!!!😍☀️
+#fyp #foryoupage #foryou #weather #montreal #montrealtiktok</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>17.94871794871795</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13.00366300366301</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.945054945054945</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.9157509157509158</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@beautywith.rm/video/7489086829996657975</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>719</v>
+      </c>
+      <c r="C9" t="n">
+        <v>113</v>
+      </c>
+      <c r="D9" t="n">
+        <v>45</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>You guys are literally like my bestfriends! You don’t know how much I appreciate you all🫶🏼 this is my safe space &amp; I hope it can be yours too!💗</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>21.9749652294854</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15.71627260083449</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.258692628650904</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1390820584144645</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@beautywith.rm/photo/7488896066662747397</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>436</v>
+      </c>
+      <c r="C10" t="n">
+        <v>54</v>
+      </c>
+      <c r="D10" t="n">
+        <v>27</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>You guys are literally like my bestfriends! You don’t know how much I appreciate you all🫶🏼 this is my safe space &amp; I hope it can be yours too!💗</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>18.57798165137615</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12.38532110091743</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.192660550458716</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4587155963302753</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7486923685056548102</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B11" t="n">
         <v>456</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C11" t="n">
         <v>70</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D11" t="n">
         <v>25</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>@dndgel Super Nova👀 BOOK YOUR APPOINTMENT NOW!🫶🏼
 #nails #nailart #nailsartvideos #nailsasmr #nailinspo</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H11" t="n">
         <v>20.83333333333334</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I11" t="n">
         <v>15.35087719298246</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>5.482456140350877</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7486866643738463493</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B12" t="n">
         <v>172</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C12" t="n">
         <v>105</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D12" t="n">
         <v>57</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>6</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>The best glosses!!! @KIKO Milano ✨👀💕
 #kikomilano #kikomilanolipgloss #lipgloss #lipglossmaking</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H12" t="n">
         <v>94.18604651162791</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I12" t="n">
         <v>61.04651162790697</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>33.13953488372093</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L12" t="n">
         <v>3.488372093023256</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/photo/7486612436464733446</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B13" t="n">
         <v>491</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C13" t="n">
         <v>102</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D13" t="n">
         <v>42</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>2</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>@dndgel 795💙 #gelnails #gelnailsathome #gelnailstutorial #gelnailsdesign #gelmanicure #gelpolish #dndgel</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H13" t="n">
         <v>29.32790224032587</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I13" t="n">
         <v>20.77393075356416</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>8.553971486761711</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L13" t="n">
         <v>0.4073319755600814</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7486501611167092023</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B14" t="n">
         <v>745</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C14" t="n">
         <v>95</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D14" t="n">
         <v>44</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>4</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>@urban decay ✨👀🩷
 @sephoracanada
 #urbandecay #urbandecaycosmetics #viral #ugccreator</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H14" t="n">
         <v>18.65771812080537</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I14" t="n">
         <v>12.75167785234899</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>5.906040268456376</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L14" t="n">
         <v>0.5369127516778524</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7486174943030299909</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B15" t="n">
         <v>632</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C15" t="n">
         <v>184</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D15" t="n">
         <v>99</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>8</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>@pradabeauty AHHH🩷😭😍
 #pradabeauty #prada #pradabeautybalm #lipstick #mascara</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H15" t="n">
         <v>44.77848101265823</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I15" t="n">
         <v>29.11392405063291</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>15.66455696202532</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L15" t="n">
         <v>1.265822784810127</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7486118818935229701</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B16" t="n">
         <v>523</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C16" t="n">
         <v>70</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D16" t="n">
         <v>33</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>@TIRTIR Inc. @BAZZAAL Now available for purchase on @Amazon #TIRTIR #sunscreen</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H16" t="n">
         <v>19.69407265774379</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I16" t="n">
         <v>13.38432122370937</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>6.309751434034416</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L16" t="n">
         <v>0.1912045889101338</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/photo/7485956494844792069</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B17" t="n">
         <v>428</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C17" t="n">
         <v>70</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D17" t="n">
         <v>33</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>@TIRTIR Inc. @BAZZAAL Now available for purchase on @Amazon #TIRTIR #sunscreen</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H17" t="n">
         <v>24.06542056074766</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I17" t="n">
         <v>16.35514018691589</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>7.710280373831775</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L17" t="n">
         <v>0.2336448598130841</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7485892383708646661</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B18" t="n">
         <v>1325</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C18" t="n">
         <v>114</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D18" t="n">
         <v>55</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>2</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>@anua_global @Clinique @PoiseUS THANK YOU!🫶🏼🩷
 #prunboxing #prunboxinghaul #prunboxingvideos</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H18" t="n">
         <v>12.75471698113208</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I18" t="n">
         <v>8.60377358490566</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>4.150943396226415</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L18" t="n">
         <v>0.1509433962264151</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7485821731093925126</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B19" t="n">
         <v>954</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C19" t="n">
         <v>166</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D19" t="n">
         <v>92</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>6</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>@urban decay thank you!🤭✨💕
 #prpackage #prunboxing #prunboxinghaul #haul #makeup #makeupvibes</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H19" t="n">
         <v>27.0440251572327</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I19" t="n">
         <v>17.40041928721174</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>9.643605870020965</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L19" t="n">
         <v>0.628930817610063</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7485770498664615174</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B20" t="n">
         <v>725</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C20" t="n">
         <v>142</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D20" t="n">
         <v>91</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>10</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>#duet with
 @Rosie 🫧💗 #fyp incredible 🥹🩷 I LOVE YOU ALL!!!! Keep reaching for you dreams… everyday is a day closer to where you want to be!!</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H20" t="n">
         <v>32.13793103448276</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I20" t="n">
         <v>19.58620689655173</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>12.55172413793103</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L20" t="n">
         <v>1.379310344827586</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7485499206166301957</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B21" t="n">
         <v>1035</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C21" t="n">
         <v>103</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D21" t="n">
         <v>49</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>@Makeupforever “Wherever Walnut” @Gisou “Watermelon Sugar”✨🩷
 #lipcombo #lipstick #lipgloss</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H21" t="n">
         <v>14.68599033816425</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I21" t="n">
         <v>9.951690821256038</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>4.734299516908213</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L21" t="n">
         <v>0.1932367149758454</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7485455689289190711</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B22" t="n">
         <v>807</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C22" t="n">
         <v>116</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D22" t="n">
         <v>51</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>8</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>@Makeupforever “Wherever Walnut” @Gisou “Watermelon Sugar”✨🩷
 #lipcombo #lipstick #lipgloss</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H22" t="n">
         <v>20.69392812887236</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I22" t="n">
         <v>14.37422552664188</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>6.319702602230483</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L22" t="n">
         <v>0.9913258983890955</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7485400223972412677</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B23" t="n">
         <v>547</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C23" t="n">
         <v>129</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D23" t="n">
         <v>54</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>3</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>@Rare Beauty 🩷
 #blush #blushhack #blushtrend #blushonviral #rarebeauty #rarebeautyreview</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H23" t="n">
         <v>33.45521023765997</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I23" t="n">
         <v>23.58318098720293</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>9.872029250457039</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L23" t="n">
         <v>0.5484460694698354</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/photo/7485173042243554565</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B24" t="n">
         <v>1160</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C24" t="n">
         <v>124</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D24" t="n">
         <v>73</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>3</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>The struggles of using @ONE SIZE BEAUTY 😭🩷 its so good tho!!
 #onesize #onesizemakeup</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H24" t="n">
         <v>16.98275862068965</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I24" t="n">
         <v>10.68965517241379</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>6.293103448275862</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L24" t="n">
         <v>0.2586206896551724</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7485026954626731270</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B25" t="n">
         <v>1056</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C25" t="n">
         <v>130</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D25" t="n">
         <v>66</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>7</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Good night 💤 ✨🩷
 @Tower 28 Beauty @Caudalie @LOCCITANE @innisfreecanada @laneigeca</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H25" t="n">
         <v>18.56060606060606</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I25" t="n">
         <v>12.31060606060606</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>6.25</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L25" t="n">
         <v>0.6628787878787878</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7484661221858233605</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B26" t="n">
         <v>1510</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C26" t="n">
         <v>109</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D26" t="n">
         <v>55</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>7</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Replying to @Dmaria Vanity tour!!🩷✨🪞
 #makeup #makeupartist #makeuphacks #makeuptips</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H26" t="n">
         <v>10.86092715231788</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I26" t="n">
         <v>7.218543046357616</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.642384105960265</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L26" t="n">
         <v>0.4635761589403974</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7484269710784154885</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>750</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>144</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D27" t="n">
         <v>54</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>9</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Replying to @Dmaria Vanity tour!!🩷✨🪞
 #makeup #makeupartist #makeuphacks #makeuptips</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H27" t="n">
         <v>26.4</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I27" t="n">
         <v>19.2</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>7.199999999999999</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L27" t="n">
         <v>1.2</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7483985105552248070</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B28" t="n">
         <v>798</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C28" t="n">
         <v>143</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D28" t="n">
         <v>65</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>9</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>@L’Oréal Paris ❤️ TYSM✨
 #loreal #lorealparis #lorealskincare #skincare #skincaretips</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H28" t="n">
         <v>26.06516290726817</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I28" t="n">
         <v>17.91979949874687</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>8.145363408521304</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L28" t="n">
         <v>1.12781954887218</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7483953908478577925</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B29" t="n">
         <v>1012</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C29" t="n">
         <v>102</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D29" t="n">
         <v>40</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>4</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Take all my money @sephoracanada ✨
 #sephora #sephoraliplooks #sephorahaul #sephoragirls #girls</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H29" t="n">
         <v>14.03162055335968</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I29" t="n">
         <v>10.07905138339921</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.952569169960475</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L29" t="n">
         <v>0.3952569169960474</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7483239928772447493</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B30" t="n">
         <v>786</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C30" t="n">
         <v>165</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D30" t="n">
         <v>100</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>8</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>@touchland OMFG🩷😍😭
 #touchland #touchlandhandsantitizer #handsanitizer</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H30" t="n">
         <v>33.71501272264631</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I30" t="n">
         <v>20.99236641221374</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>12.72264631043257</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L30" t="n">
         <v>1.017811704834606</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/photo/7483151721087175942</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B31" t="n">
         <v>9266</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C31" t="n">
         <v>137</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D31" t="n">
         <v>66</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>7</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>@laneigeca 👀🤎
 #sephora #sephoraliplooks #sephoralips #sephoralipgloss #laneige #laneigelipmask</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H31" t="n">
         <v>2.190805093891647</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I31" t="n">
         <v>1.47852363479387</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.7122814590977768</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L31" t="n">
         <v>0.07554500323764299</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7482866278277926150</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B32" t="n">
         <v>1936</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C32" t="n">
         <v>47</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D32" t="n">
         <v>12</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>1</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Use code “ROSIE255” for an EXTRA 25% OFF!🛍️🩷
 @EVRY JEWELS #evryjewels #evryjewelshaul</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H32" t="n">
         <v>3.047520661157025</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I32" t="n">
         <v>2.427685950413223</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.6198347107438017</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L32" t="n">
         <v>0.05165289256198347</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7482794047380147461</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B33" t="n">
         <v>1266</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C33" t="n">
         <v>129</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D33" t="n">
         <v>46</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>5</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Little @sephoracanada haul🩷🛍️ @Tower 28 Beauty @laneigeca
 #sephora #sephorahaul</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H33" t="n">
         <v>13.82306477093207</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I33" t="n">
         <v>10.18957345971564</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>3.633491311216429</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L33" t="n">
         <v>0.3949447077409162</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7482461514197142790</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B34" t="n">
         <v>1286</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C34" t="n">
         <v>195</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D34" t="n">
         <v>104</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>10</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>So excited!!!!!🩷👀😳 will be uploaded tomorrow!
 #youtube #youtubers #beauty #beautyhacks #beautytips</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H34" t="n">
         <v>23.25038880248834</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I34" t="n">
         <v>15.16329704510109</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>8.087091757387247</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L34" t="n">
         <v>0.7776049766718507</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7482431873793281286</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B35" t="n">
         <v>926</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C35" t="n">
         <v>121</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D35" t="n">
         <v>43</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>8</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>@Good Molecules 🩷😍👀
 #prpackage #prunboxing #prunboxingvideos #prunboxinghaul</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H35" t="n">
         <v>17.71058315334773</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I35" t="n">
         <v>13.06695464362851</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>4.643628509719223</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L35" t="n">
         <v>0.8639308855291578</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/photo/7482033945089985797</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B36" t="n">
         <v>4338</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C36" t="n">
         <v>98</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D36" t="n">
         <v>38</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>2</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>@Good Molecules 🩷😍👀
 #prpackage #prunboxing #prunboxingvideos #prunboxinghaul</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H36" t="n">
         <v>3.135085292761641</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I36" t="n">
         <v>2.259105578607653</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.875979714153988</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L36" t="n">
         <v>0.04610419548178884</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/photo/7481771613038415110</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B37" t="n">
         <v>717</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C37" t="n">
         <v>112</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>32</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>8</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>If you have any questions please DM me!! My insta is beautywith.rm🫶🏼 I can’t wait to be able to help others out!!</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H37" t="n">
         <v>20.0836820083682</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I37" t="n">
         <v>15.62064156206416</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>4.463040446304045</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L37" t="n">
         <v>1.115760111576011</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7481699329430818053</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B38" t="n">
         <v>740</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C38" t="n">
         <v>92</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D38" t="n">
         <v>26</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>5</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>@EVRY JEWELS 🛍️🩷 code: ROSIE255
 #evryjewels #evryjewelshaul #evryjewelsreview</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H38" t="n">
         <v>15.94594594594595</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I38" t="n">
         <v>12.43243243243243</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>3.513513513513514</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L38" t="n">
         <v>0.6756756756756757</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7481389196708433157</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B39" t="n">
         <v>932</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C39" t="n">
         <v>44</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D39" t="n">
         <v>19</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>2</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>BIG NEWS, BEAUTY BESTIES! ✨ My first-ever eBook is HERE! If you’ve ever dreamed of becoming a beauty content creator but didn’t know where to start, this guide is your ultimate roadmap. From growth hacks to brand deals, I’m spilling ALL the secrets to help you turn your passion into something big! Are you ready to level up? Grab your copy now!</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H39" t="n">
         <v>6.759656652360515</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I39" t="n">
         <v>4.721030042918455</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>2.03862660944206</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L39" t="n">
         <v>0.2145922746781116</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7481325313780108549</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B40" t="n">
         <v>747</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C40" t="n">
         <v>98</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D40" t="n">
         <v>55</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>6</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>@Abib Cosmetics 👄💗👀
 #glazedjelly #abiblipmask #lipbalm #sleepingmask #lipcare #glowup #drylips</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H40" t="n">
         <v>20.48192771084337</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I40" t="n">
         <v>13.11914323962517</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>7.362784471218206</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L40" t="n">
         <v>0.8032128514056224</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7481020405134658821</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B41" t="n">
         <v>1280</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C41" t="n">
         <v>107</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D41" t="n">
         <v>21</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>4</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Fr tho…
 #summer #summervacation #beach #allinclusive #sunset #sunsetvibes #sunsetbeach #sunsetview</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H41" t="n">
         <v>10</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I41" t="n">
         <v>8.359375</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>1.640625</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L41" t="n">
         <v>0.3125</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7480922255808105733</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B42" t="n">
         <v>674</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C42" t="n">
         <v>125</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D42" t="n">
         <v>47</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>14</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Replying to @Simran I can’t wait to help everyone out!🩷 Message me on Insta!
 #ebook #ebooktiktok</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H42" t="n">
         <v>25.51928783382789</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I42" t="n">
         <v>18.5459940652819</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>6.973293768545995</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L42" t="n">
         <v>2.077151335311572</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7480687931473120517</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B43" t="n">
         <v>839</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C43" t="n">
         <v>131</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D43" t="n">
         <v>74</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>6</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>@Saie ❤️🌶️
 #saiebeauty #saiebeautyblush #saieblush #blush #blushhack #blushtrend #liquidblush</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H43" t="n">
         <v>24.43384982121573</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I43" t="n">
         <v>15.61382598331347</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>8.820023837902264</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L43" t="n">
         <v>0.7151370679380215</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7480572225620315398</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B44" t="n">
         <v>1074</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C44" t="n">
         <v>131</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D44" t="n">
         <v>74</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>6</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>@Saie ❤️🌶️
 #saiebeauty #saiebeautyblush #saieblush #blush #blushhack #blushtrend #liquidblush</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H44" t="n">
         <v>19.08752327746741</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I44" t="n">
         <v>12.19739292364991</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>6.890130353817504</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L44" t="n">
         <v>0.5586592178770949</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7480256738420149509</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B45" t="n">
         <v>573</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C45" t="n">
         <v>111</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D45" t="n">
         <v>55</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>5</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>This is ridiculous😂🍓
 #viral #losangeles #erewhon #erewhonmarket #erewhonreviews #strawberry</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H45" t="n">
         <v>28.97033158813264</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I45" t="n">
         <v>19.3717277486911</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>9.598603839441536</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L45" t="n">
         <v>0.8726003490401396</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7480189708614503686</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B46" t="n">
         <v>820</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C46" t="n">
         <v>142</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D46" t="n">
         <v>48</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>11</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Definitely worth the hype🩷🍵 @alphabetcafemontreal
 #montreal #montrealtiktok #montrealfood</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H46" t="n">
         <v>23.17073170731707</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I46" t="n">
         <v>17.31707317073171</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>5.853658536585367</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L46" t="n">
         <v>1.341463414634146</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7479843204095823159</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B47" t="n">
         <v>685</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C47" t="n">
         <v>360</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D47" t="n">
         <v>141</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>17</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>All because of you!!! I LOVE YOU GUYS😭❤️❤️❤️ @L’Oréal Paris
 #loreal #lorealparis</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H47" t="n">
         <v>73.13868613138686</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I47" t="n">
         <v>52.55474452554745</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>20.58394160583941</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L47" t="n">
         <v>2.481751824817518</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7479472156271758647</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B48" t="n">
         <v>889</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C48" t="n">
         <v>104</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D48" t="n">
         <v>50</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>7</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>@milkmakeup ✨
 #milkmakeup #makeup #makeuphacks #makeuptransition #makeupproducts #beauty</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H48" t="n">
         <v>17.32283464566929</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I48" t="n">
         <v>11.69853768278965</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>5.62429696287964</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L48" t="n">
         <v>0.7874015748031495</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7479131878025383173</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B49" t="n">
         <v>861</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C49" t="n">
         <v>107</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D49" t="n">
         <v>49</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>2</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Little rant of the night🙄
 #influencers #influencersinthewild #influencertips #beautytok #beautyhacks</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H49" t="n">
         <v>18.1184668989547</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I49" t="n">
         <v>12.4274099883856</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>5.691056910569105</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L49" t="n">
         <v>0.232288037166086</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7478912705982680325</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B50" t="n">
         <v>712</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C50" t="n">
         <v>136</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D50" t="n">
         <v>61</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>8</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>@SkinCeuticals ahhh TYSM🥹🩷🤭
 #skinceuticals #skinceuticalsskincare #skincare #skincareroutine</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H50" t="n">
         <v>27.66853932584269</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I50" t="n">
         <v>19.10112359550562</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>8.567415730337078</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L50" t="n">
         <v>1.123595505617978</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@beautywith.rm/video/7478844707825585463</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B51" t="n">
         <v>807</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C51" t="n">
         <v>94</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D51" t="n">
         <v>47</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>6</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>@Rare Beauty 🩷
 #rarebeauty #rarebeautyblush #rarebeautymakeup #selenagomez #thatgirl</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H51" t="n">
         <v>17.47211895910781</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I51" t="n">
         <v>11.64807930607187</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>5.824039653035936</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L51" t="n">
         <v>0.7434944237918215</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-02-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@beautywith.rm/video/7478778549059521798</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>709</v>
-      </c>
-      <c r="C46" t="n">
-        <v>116</v>
-      </c>
-      <c r="D46" t="n">
-        <v>80</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>6</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>This is your sign to keep going!!🔥✨
-@urban decay @SKIMS @Caudalie @Skinfix @Peach &amp; Lily @Armani beauty</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>27.64456981664316</v>
-      </c>
-      <c r="I46" t="n">
-        <v>16.36107193229901</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>11.28349788434415</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.846262341325811</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-02-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@beautywith.rm/video/7478437043794758917</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>842</v>
-      </c>
-      <c r="C47" t="n">
-        <v>68</v>
-      </c>
-      <c r="D47" t="n">
-        <v>25</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>4</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>@Winky Lux 👀🩷
-#browpencil #brows #eyebrow #eyebrowtutorial #eyebrowshaping #eyebrowpecil</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>11.04513064133017</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8.076009501187649</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2.969121140142517</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.4750593824228029</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@beautywith.rm/video/7478382269850275077</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>412</v>
-      </c>
-      <c r="C48" t="n">
-        <v>114</v>
-      </c>
-      <c r="D48" t="n">
-        <v>64</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>5</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>@Caudalie IM CRYING💜😭 I LOVE YOU!!!🍇
-#caudalie #caudaliedetox #caudalievinoperfect</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>43.20388349514563</v>
-      </c>
-      <c r="I48" t="n">
-        <v>27.66990291262136</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>15.53398058252427</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.213592233009709</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-02-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@beautywith.rm/video/7478112716691983621</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1277</v>
-      </c>
-      <c r="C49" t="n">
-        <v>91</v>
-      </c>
-      <c r="D49" t="n">
-        <v>37</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>11</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>#greenscreenvideo @tfit 🤯👀❤️
-#makeup #makeuptutorial #makeuptransformation #makeuphacks #makeuptips</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>10.02349256068912</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7.126076742364917</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>2.897415818324197</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.8613938919342208</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-02-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@beautywith.rm/video/7477728896054529285</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>968</v>
-      </c>
-      <c r="C50" t="n">
-        <v>120</v>
-      </c>
-      <c r="D50" t="n">
-        <v>75</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>8</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>My favs!!🤩
-@Benefit Cosmetics @Tower 28 Beauty @Rare Beauty @ONE SIZE BEAUTY</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>20.14462809917355</v>
-      </c>
-      <c r="I50" t="n">
-        <v>12.39669421487603</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>7.747933884297521</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.8264462809917356</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-02-21</t>
         </is>
       </c>
     </row>
